--- a/docs/05-Power-Budget/PowerBudgetexcel.xlsx
+++ b/docs/05-Power-Budget/PowerBudgetexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pos_software\EGR304raj.github.io\docs\05-Power-Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C0C11E-8186-4DF4-B397-F1B607D8951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E2B133-E0AF-4DCB-B1A1-62C6407B1F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Team Number:</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>LED #1</t>
-  </si>
-  <si>
-    <t>LED #2</t>
   </si>
   <si>
     <t>0-5V</t>
@@ -838,12 +835,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -853,20 +856,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,7 +1218,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1238,16 +1235,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="A1" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -1312,16 +1309,16 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
@@ -1354,11 +1351,11 @@
       <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="54" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="24">
         <v>1</v>
@@ -1379,9 +1376,9 @@
       <c r="B10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="14">
         <v>1</v>
@@ -1404,7 +1401,7 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
@@ -1427,7 +1424,7 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1445,12 +1442,10 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="25" t="s">
-        <v>42</v>
-      </c>
+      <c r="B13" s="25"/>
       <c r="C13" s="13"/>
       <c r="D13" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -1479,7 +1474,7 @@
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="21"/>
@@ -1526,7 +1521,7 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
@@ -1571,11 +1566,11 @@
       <c r="A21" s="4"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="16">
         <f>SUM(G18:G20)</f>
         <v>171</v>
@@ -1586,11 +1581,11 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="34">
         <v>0.25</v>
       </c>
@@ -1598,11 +1593,11 @@
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="16">
         <f>G21*(1+G22)</f>
         <v>213.75</v>
@@ -1650,13 +1645,13 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="16">
         <f>G25-G23</f>
         <v>786.25</v>
@@ -1708,7 +1703,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
@@ -1739,7 +1734,7 @@
       <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -1749,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
@@ -1766,7 +1761,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="57"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="14"/>
@@ -1776,7 +1771,7 @@
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="58"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="33"/>
@@ -1787,13 +1782,13 @@
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="53"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="51">
         <f>G30-SUM(G32:G34)</f>
         <v>150</v>
